--- a/demo.xlsx
+++ b/demo.xlsx
@@ -372,22 +372,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>123</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J7">
-        <v>2312123</v>
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="D4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>123</v>
+      </c>
+      <c r="C6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>123</v>
+      </c>
+      <c r="D7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
